--- a/Mifos Automation Excels/Loan Product/22-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ACC-CASH-DISB-FEE-%INT-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/22-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ACC-CASH-DISB-FEE-%INT-ONTIME-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>productname</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Overdue/Due Fee/Int,Principal</t>
+  </si>
+  <si>
+    <t>allowPartialPeriodInterestCalcualtion</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -758,181 +761,188 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>66</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B28" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+    <row r="29" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B29" s="12">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>17</v>
+        <v>57</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>38</v>
+      <c r="A32" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mifos Automation Excels/Loan Product/22-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ACC-CASH-DISB-FEE-%INT-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/22-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ACC-CASH-DISB-FEE-%INT-ONTIME-Loanproduct.xlsx
@@ -182,9 +182,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>22-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-DISBURSE-FEE-%INT</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -652,10 +652,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -744,8 +744,8 @@
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>55</v>
+      <c r="B17" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -830,7 +830,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="12">
         <v>10000</v>
@@ -838,15 +838,15 @@
     </row>
     <row r="29" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>17</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>17</v>
@@ -951,10 +951,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
